--- a/aula4.xlsx
+++ b/aula4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>meses</t>
   </si>
@@ -444,11 +444,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="202174976"/>
-        <c:axId val="202175368"/>
+        <c:axId val="147116296"/>
+        <c:axId val="194697208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202174976"/>
+        <c:axId val="147116296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,7 +482,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202175368"/>
+        <c:crossAx val="194697208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -490,7 +490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202175368"/>
+        <c:axId val="194697208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +500,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202174976"/>
+        <c:crossAx val="147116296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2063,7 +2063,7 @@
   <dimension ref="C3:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,6 +2204,9 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
